--- a/Files/Ventas.xlsx
+++ b/Files/Ventas.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\EDD2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B697C9-E41F-455E-B061-2FE94B266E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0469D974-7B6A-43BC-A5E9-0D4417CF021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Restaurante</t>
   </si>
@@ -37,14 +48,49 @@
   </si>
   <si>
     <t>Precio Total</t>
+  </si>
+  <si>
+    <t>Wrap de Pollo a la Parrilla</t>
+  </si>
+  <si>
+    <t>Wrap Vegano</t>
+  </si>
+  <si>
+    <t>Papas Fritas Grandes</t>
+  </si>
+  <si>
+    <t>Refresco Coca-Cola</t>
+  </si>
+  <si>
+    <t>Té Helado</t>
+  </si>
+  <si>
+    <t>Vainilla con helado</t>
+  </si>
+  <si>
+    <t>ElSaborAna</t>
+  </si>
+  <si>
+    <t>ElSaborAlexander</t>
+  </si>
+  <si>
+    <t>ElSaborAlejandro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1B1E9AD7-6D28-4931-B397-EB0484135FF6}" name="Restaurante"/>
     <tableColumn id="2" xr3:uid="{28F1141E-EB41-4431-A29B-23ED8676736D}" name="Comida"/>
@@ -367,32 +419,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Files/Ventas.xlsx
+++ b/Files/Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\Downloads\EDD2\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0469D974-7B6A-43BC-A5E9-0D4417CF021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C5526-9920-43D3-A2A9-AA070B7A47AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Restaurante</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>ElSaborAlejandro</t>
+  </si>
+  <si>
+    <t>Sushi</t>
   </si>
 </sst>
 </file>
@@ -144,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14" xr:uid="{E36EAD93-5508-4809-AFF2-3D305DAD7647}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1B1E9AD7-6D28-4931-B397-EB0484135FF6}" name="Restaurante"/>
     <tableColumn id="2" xr3:uid="{28F1141E-EB41-4431-A29B-23ED8676736D}" name="Comida"/>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +618,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
